--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmrogers/Work/Teaching/ece568_s2019/homework/hw2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prats\OneDrive\Desktop\Duke 1-2\ECE 568 ERSS\Homework02\ECE-568-Homework-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F5069-1D92-2B40-99D7-1B05A8907BBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3F8F5069-1D92-2B40-99D7-1B05A8907BBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E7240B50-F7EE-426C-9C13-32BD315382AE}"/>
   <bookViews>
-    <workbookView xWindow="30100" yWindow="4040" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -83,6 +83,25 @@
   </si>
   <si>
     <t>Any extra tests you would like to mention?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cache Size: 8 entries|NMRU Replacement  Policy|every loop iteration in the daemon updates cache and removes expired entries.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>¯\_(ツ)_/¯</t>
+  </si>
+  <si>
+    <t>Failed to parse request -- 400 ERROR
+Failed to parse response from server -- 502 ERROR</t>
+  </si>
+  <si>
+    <t>NONE?</t>
   </si>
 </sst>
 </file>
@@ -133,19 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,25 +480,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.81640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="14.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -490,89 +507,108 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="16" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="55" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="43" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="31" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" customHeight="1">
